--- a/inst/extdata/threshold_dictionary.xlsx
+++ b/inst/extdata/threshold_dictionary.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\WHO_AFRO\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/moussanaf_who_int/Documents/Documents/GitHub/epichecks/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_172547623C6F8EDBAD96E8915D9000D25DAFB725" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{449B0088-AE8B-467E-B0CA-BF9D1F208A53}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="6795"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1 (2)" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="116">
   <si>
     <t xml:space="preserve">Desease </t>
   </si>
@@ -264,9 +265,6 @@
     <t>Acute and Chronic Viral Hepatitis</t>
   </si>
   <si>
-    <t>Acute Haemorrhagic Fever Syndrome</t>
-  </si>
-  <si>
     <t>Diarrhoea with Dehydration</t>
   </si>
   <si>
@@ -352,12 +350,39 @@
   </si>
   <si>
     <t>Alert_threshold</t>
+  </si>
+  <si>
+    <t>Animal Bites</t>
+  </si>
+  <si>
+    <t>Cat Bites</t>
+  </si>
+  <si>
+    <t>Donkey Bites</t>
+  </si>
+  <si>
+    <t>Horse Bites</t>
+  </si>
+  <si>
+    <t>Monkey Bites</t>
+  </si>
+  <si>
+    <t>Snake Bites</t>
+  </si>
+  <si>
+    <t>Bee Stings</t>
+  </si>
+  <si>
+    <t>Scorpion Stings</t>
+  </si>
+  <si>
+    <t>Viral Heamorrhagic Fever</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,28 +733,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="3" max="3" width="48.1796875" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>30</v>
@@ -738,10 +763,10 @@
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>77</v>
       </c>
@@ -749,29 +774,29 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
@@ -779,14 +804,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -794,14 +819,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -809,16 +834,16 @@
         <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
@@ -826,16 +851,16 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -843,14 +868,14 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -858,14 +883,14 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -873,14 +898,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -888,14 +913,14 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -903,14 +928,14 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -918,61 +943,61 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
@@ -980,48 +1005,48 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
@@ -1029,31 +1054,31 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1061,14 +1086,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -1076,14 +1101,14 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
@@ -1091,14 +1116,14 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -1106,16 +1131,16 @@
         <v>44</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
@@ -1123,14 +1148,14 @@
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
@@ -1138,14 +1163,14 @@
         <v>45</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
@@ -1153,14 +1178,14 @@
         <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -1168,29 +1193,29 @@
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
@@ -1198,14 +1223,14 @@
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
@@ -1213,14 +1238,14 @@
         <v>3</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -1228,16 +1253,16 @@
         <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>68</v>
       </c>
@@ -1245,14 +1270,14 @@
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
@@ -1260,14 +1285,14 @@
         <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -1275,14 +1300,14 @@
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -1290,29 +1315,29 @@
         <v>3</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
@@ -1320,14 +1345,14 @@
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>70</v>
       </c>
@@ -1335,14 +1360,14 @@
         <v>3</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
@@ -1350,16 +1375,16 @@
         <v>32</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -1367,31 +1392,31 @@
         <v>3</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>74</v>
       </c>
@@ -1399,14 +1424,14 @@
         <v>32</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
@@ -1414,29 +1439,29 @@
         <v>3</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
@@ -1444,14 +1469,14 @@
         <v>3</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
@@ -1459,31 +1484,151 @@
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E49"/>
-  <sortState ref="A2:D43">
+  <autoFilter ref="A1:E57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1492,21 +1637,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1528,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1539,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1561,7 +1706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1597,7 +1742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1608,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1630,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1641,7 +1786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1652,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1663,7 +1808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1682,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>

--- a/inst/extdata/threshold_dictionary.xlsx
+++ b/inst/extdata/threshold_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/moussanaf_who_int/Documents/Documents/GitHub/epichecks/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_172547623C6F8EDBAD96E8915D9000D25DAFB725" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{449B0088-AE8B-467E-B0CA-BF9D1F208A53}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_172547623C6F8EDBAD96E8915D9000D25DAFB725" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9FB9379A-E2AA-46AF-A6C3-513C86BA85EC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="117">
   <si>
     <t xml:space="preserve">Desease </t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>Viral Heamorrhagic Fever</t>
+  </si>
+  <si>
+    <t>Neonatal Deaths</t>
   </si>
 </sst>
 </file>
@@ -734,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1624,6 +1627,21 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/threshold_dictionary.xlsx
+++ b/inst/extdata/threshold_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/moussanaf_who_int/Documents/Documents/GitHub/epichecks/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_172547623C6F8EDBAD96E8915D9000D25DAFB725" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9FB9379A-E2AA-46AF-A6C3-513C86BA85EC}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_172547623C6F8EDBAD96E8915D9000D25DAFB725" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{816548AE-C494-4585-8C31-D09305EA27B7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="119">
   <si>
     <t xml:space="preserve">Desease </t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>Neonatal Deaths</t>
+  </si>
+  <si>
+    <t>Adverse events following immunization (AEFI)</t>
+  </si>
+  <si>
+    <t>Investigate, treat the patient, communicate with the parents and community, respond to rumours or public enquiries, complete case investigation form, report as soon as possible / Investiguer, traiter le patient, communiquer avec les parents et la communauté, répondre aux rumeurs ou aux demandes publiques, remplir le formulaire d'investigation de cas, notifier le plus tôt possible</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,6 +462,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1642,6 +1654,21 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
